--- a/Scrum.xlsx
+++ b/Scrum.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosha\Desktop\Ubuntu Shared\hackuta18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosha\Desktop\Ubuntu Shared\Smart Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A995FA-FA22-4879-99E3-5F90D96A6309}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81D4613-9629-4387-BEBD-D611A43712BB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B956504D-F9E4-4C43-A0A4-625BB541646A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Feature ID</t>
   </si>
@@ -59,9 +59,6 @@
     <t xml:space="preserve">User Registration </t>
   </si>
   <si>
-    <t>User Login</t>
-  </si>
-  <si>
     <t>B01</t>
   </si>
   <si>
@@ -150,6 +147,15 @@
   </si>
   <si>
     <t xml:space="preserve">Paused. </t>
+  </si>
+  <si>
+    <t>X01</t>
+  </si>
+  <si>
+    <t>Responsiveness</t>
+  </si>
+  <si>
+    <t>User Login/Logout</t>
   </si>
 </sst>
 </file>
@@ -353,17 +359,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,7 +687,7 @@
   <dimension ref="B1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F13" sqref="F13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,49 +703,49 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="11" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="14" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="20" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="11" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="21" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="15" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>3</v>
@@ -749,34 +755,34 @@
       </c>
     </row>
     <row r="8" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="20" t="s">
-        <v>34</v>
+      <c r="B8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="Q9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -799,10 +805,10 @@
         <v>5</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
@@ -815,11 +821,11 @@
       <c r="D12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>16</v>
+      <c r="E12" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -831,13 +837,13 @@
         <v>7</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -846,19 +852,19 @@
         <v>3</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>15</v>
+      <c r="E14" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
@@ -866,19 +872,19 @@
         <v>4</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>15</v>
+      <c r="E15" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
@@ -886,16 +892,16 @@
         <v>5</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -904,16 +910,16 @@
         <v>6</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -923,7 +929,7 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="22"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="8"/>
       <c r="G18" s="2"/>
     </row>
@@ -933,7 +939,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="22"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="8"/>
       <c r="G19" s="2"/>
     </row>
@@ -943,7 +949,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="22"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="8"/>
       <c r="G20" s="2"/>
     </row>
@@ -953,7 +959,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="8"/>
       <c r="G21" s="2"/>
     </row>
@@ -963,7 +969,7 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="8"/>
       <c r="G22" s="2"/>
     </row>
@@ -973,7 +979,7 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="22"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="8"/>
       <c r="G23" s="2"/>
     </row>
@@ -983,7 +989,7 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="22"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="8"/>
       <c r="G24" s="2"/>
     </row>
@@ -993,7 +999,7 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="8"/>
       <c r="G25" s="2"/>
     </row>
@@ -1003,7 +1009,7 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="8"/>
       <c r="G26" s="2"/>
     </row>
@@ -1013,7 +1019,7 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="8"/>
       <c r="G27" s="2"/>
     </row>
@@ -1023,7 +1029,7 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="22"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="8"/>
       <c r="G28" s="2"/>
     </row>
@@ -1031,10 +1037,18 @@
       <c r="B29" s="8">
         <v>18</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="8"/>
+      <c r="C29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -1043,7 +1057,7 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="22"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="8"/>
       <c r="G30" s="2"/>
     </row>
@@ -1053,7 +1067,7 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="22"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="8"/>
       <c r="G31" s="2"/>
     </row>
@@ -1063,7 +1077,7 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="22"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="8"/>
       <c r="G32" s="2"/>
     </row>
@@ -1073,7 +1087,7 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="22"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="8"/>
       <c r="G33" s="2"/>
     </row>
@@ -1083,7 +1097,7 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="22"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="8"/>
       <c r="G34" s="2"/>
     </row>
@@ -1093,18 +1107,18 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="24"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="9"/>
       <c r="G35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E35" xr:uid="{B9582154-D880-4667-81C8-A63963265050}">
